--- a/assetmodel/twingraph.xlsx
+++ b/assetmodel/twingraph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ccadt\assetmodel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\adt4iiot\assetmodel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC6C5E5-70AD-4F6C-82F1-64E3D7E4B9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9051B4AE-9547-4402-B0CB-BE02B65CA8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29550" yWindow="3480" windowWidth="21315" windowHeight="10845" xr2:uid="{B6154E4F-774F-4730-84F3-5195ADBCD94E}"/>
+    <workbookView xWindow="11190" yWindow="3255" windowWidth="21315" windowHeight="10845" xr2:uid="{B6154E4F-774F-4730-84F3-5195ADBCD94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,88 +83,88 @@
     <t>dtmi:assetmodel:asset;1</t>
   </si>
   <si>
-    <t>tccc</t>
-  </si>
-  <si>
-    <t>lir</t>
-  </si>
-  <si>
-    <t>lir-ut</t>
-  </si>
-  <si>
-    <t>lir-ut-cell1</t>
-  </si>
-  <si>
-    <t>lir-ut-cip1</t>
-  </si>
-  <si>
-    <t>lir-ut-cip2</t>
-  </si>
-  <si>
-    <t>lir-ut-cip1-lin1</t>
-  </si>
-  <si>
-    <t>lir-ut-cip1-lin2</t>
-  </si>
-  <si>
-    <t>lir-ut-cip1-lin3</t>
-  </si>
-  <si>
-    <t>lir-ut-cip2-lin1</t>
-  </si>
-  <si>
-    <t>lir-ut-cip2-lin2</t>
-  </si>
-  <si>
-    <t>lir-ut-cip2-lin3</t>
-  </si>
-  <si>
-    <t>lir-ut-cip2-lin4</t>
-  </si>
-  <si>
-    <t>lir-ut-cip2-lin5</t>
-  </si>
-  <si>
-    <t>{"Name": "LIR/UT/CIP1/LIN1", "AssetId": "LIR/UT/CIP1/LIN1", "BatchID": "", "Fault_Code": "", "Object": "", "Process_Cell": "", "PV": "", "SP": "", "Status_Code": "", "Unit": "", "Batch_Type": "", "Status_MSG": "", "UOM": ""}</t>
-  </si>
-  <si>
-    <t>{"Name": "LIR/UT/CIP1/LIN2", "AssetId": "LIR/UT/CIP1/LIN2", "BatchID": "", "Fault_Code": "", "Object": "", "Process_Cell": "", "PV": "", "SP": "", "Status_Code": "", "Unit": "", "Batch_Type": "", "Status_MSG": "", "UOM": ""}</t>
-  </si>
-  <si>
-    <t>{"Name": "LIR/UT/CIP1/LIN3", "AssetId": "LIR/UT/CIP1/LIN3", "BatchID": "", "Fault_Code": "", "Object": "", "Process_Cell": "", "PV": "", "SP": "", "Status_Code": "", "Unit": "", "Batch_Type": "", "Status_MSG": "", "UOM": ""}</t>
-  </si>
-  <si>
-    <t>{"Name": "LIR/UT/CIP2/LIN1", "AssetId": "LIR/UT/CIP2/LIN1", "BatchID": "", "Fault_Code": "", "Object": "", "Process_Cell": "", "PV": "", "SP": "", "Status_Code": "", "Unit": "", "Batch_Type": "", "Status_MSG": "", "UOM": ""}</t>
-  </si>
-  <si>
-    <t>{"Name": "LIR/UT/CIP2/LIN2", "AssetId": "LIR/UT/CIP2/LIN2", "BatchID": "", "Fault_Code": "", "Object": "", "Process_Cell": "", "PV": "", "SP": "", "Status_Code": "", "Unit": "", "Batch_Type": "", "Status_MSG": "", "UOM": ""}</t>
-  </si>
-  <si>
-    <t>{"Name": "LIR/UT/CIP2/LIN3", "AssetId": "LIR/UT/CIP2/LIN3", "BatchID": "", "Fault_Code": "", "Object": "", "Process_Cell": "", "PV": "", "SP": "", "Status_Code": "", "Unit": "", "Batch_Type": "", "Status_MSG": "", "UOM": ""}</t>
-  </si>
-  <si>
-    <t>{"Name": "LIR/UT/CIP2/LIN4", "AssetId": "LIR/UT/CIP2/LIN4", "BatchID": "", "Fault_Code": "", "Object": "", "Process_Cell": "", "PV": "", "SP": "", "Status_Code": "", "Unit": "", "Batch_Type": "", "Status_MSG": "", "UOM": ""}</t>
-  </si>
-  <si>
-    <t>{"Name": "LIR/UT/CIP2/LIN5", "AssetId": "LIR/UT/CIP2/LIN5", "BatchID": "", "Fault_Code": "", "Object": "", "Process_Cell": "", "PV": "", "SP": "", "Status_Code": "", "Unit": "", "Batch_Type": "", "Status_MSG": "", "UOM": ""}</t>
-  </si>
-  <si>
-    <t>{"Name": "TCCC", "AssetId": "TCCC"}</t>
-  </si>
-  <si>
-    <t>{"Name": "LIR", "AssetId": "LIR"}</t>
-  </si>
-  <si>
-    <t>{"Name": "UT", "AssetId": "LIR/UT"}</t>
-  </si>
-  <si>
-    <t>{"Name": "Cell1", "AssetId": "LIR/UT/CELL1"}</t>
-  </si>
-  <si>
-    <t>{"Name": "CIP1", "AssetId": "LIR/UT/CIP1"}</t>
-  </si>
-  <si>
-    <t>{"Name": "CIP2", "AssetId": "LIR/UT/CIP2"}</t>
+    <t>contoso</t>
+  </si>
+  <si>
+    <t>st1</t>
+  </si>
+  <si>
+    <t>st1-ut</t>
+  </si>
+  <si>
+    <t>st1-ut-cell1</t>
+  </si>
+  <si>
+    <t>st1-ut-cip1</t>
+  </si>
+  <si>
+    <t>st1-ut-cip2</t>
+  </si>
+  <si>
+    <t>st1-ut-cip1-lin1</t>
+  </si>
+  <si>
+    <t>st1-ut-cip1-lin2</t>
+  </si>
+  <si>
+    <t>st1-ut-cip1-lin3</t>
+  </si>
+  <si>
+    <t>st1-ut-cip2-lin1</t>
+  </si>
+  <si>
+    <t>st1-ut-cip2-lin2</t>
+  </si>
+  <si>
+    <t>st1-ut-cip2-lin3</t>
+  </si>
+  <si>
+    <t>st1-ut-cip2-lin4</t>
+  </si>
+  <si>
+    <t>st1-ut-cip2-lin5</t>
+  </si>
+  <si>
+    <t>{"Name": "ST1", "AssetId": "ST1"}</t>
+  </si>
+  <si>
+    <t>{"Name": "UT", "AssetId": "ST1/UT"}</t>
+  </si>
+  <si>
+    <t>{"Name": "Cell1", "AssetId": "ST1/UT/CELL1"}</t>
+  </si>
+  <si>
+    <t>{"Name": "CIP1", "AssetId": "ST1/UT/CIP1"}</t>
+  </si>
+  <si>
+    <t>{"Name": "CIP2", "AssetId": "ST1/UT/CIP2"}</t>
+  </si>
+  <si>
+    <t>{"Name": "ST1/UT/CIP1/LIN1", "AssetId": "ST1/UT/CIP1/LIN1"}</t>
+  </si>
+  <si>
+    <t>{"Name": "ST1/UT/CIP1/LIN2", "AssetId": "ST1/UT/CIP1/LIN2"}</t>
+  </si>
+  <si>
+    <t>{"Name": "ST1/UT/CIP1/LIN3", "AssetId": "ST1/UT/CIP1/LIN3"}</t>
+  </si>
+  <si>
+    <t>{"Name": "ST1/UT/CIP2/LIN1", "AssetId": "ST1/UT/CIP2/LIN1"}</t>
+  </si>
+  <si>
+    <t>{"Name": "ST1/UT/CIP2/LIN2", "AssetId": "ST1/UT/CIP2/LIN2"}</t>
+  </si>
+  <si>
+    <t>{"Name": "ST1/UT/CIP2/LIN3", "AssetId": "ST1/UT/CIP2/LIN3"}</t>
+  </si>
+  <si>
+    <t>{"Name": "ST1/UT/CIP2/LIN4", "AssetId": "ST1/UT/CIP2/LIN4"}</t>
+  </si>
+  <si>
+    <t>{"Name": "ST1/UT/CIP2/LIN5", "AssetId": "ST1/UT/CIP2/LIN5"}</t>
+  </si>
+  <si>
+    <t>{"Name": "contoso", "AssetId": "contoso"}</t>
   </si>
 </sst>
 </file>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E4B3A2-EF53-41B2-9F0F-6F5502ACE162}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +562,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -579,7 +579,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -596,7 +596,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -613,7 +613,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -630,7 +630,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -647,7 +647,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -664,7 +664,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -681,7 +681,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -698,7 +698,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -715,7 +715,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -732,7 +732,7 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -749,7 +749,7 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -766,7 +766,7 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -783,7 +783,7 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/assetmodel/twingraph.xlsx
+++ b/assetmodel/twingraph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\adt4iiot\assetmodel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9051B4AE-9547-4402-B0CB-BE02B65CA8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7246A938-D623-4998-9B46-90DF8A36D456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11190" yWindow="3255" windowWidth="21315" windowHeight="10845" xr2:uid="{B6154E4F-774F-4730-84F3-5195ADBCD94E}"/>
+    <workbookView xWindow="30630" yWindow="2865" windowWidth="21315" windowHeight="10845" xr2:uid="{B6154E4F-774F-4730-84F3-5195ADBCD94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>ModelID</t>
   </si>
@@ -50,18 +50,51 @@
     <t>Init Data</t>
   </si>
   <si>
+    <t>contoso</t>
+  </si>
+  <si>
+    <t>france</t>
+  </si>
+  <si>
+    <t>canada</t>
+  </si>
+  <si>
     <t>rel_has_sites</t>
   </si>
   <si>
+    <t>france-area2</t>
+  </si>
+  <si>
     <t>rel_has_areas</t>
   </si>
   <si>
+    <t>canada-area1</t>
+  </si>
+  <si>
+    <t>france-area2-line2</t>
+  </si>
+  <si>
     <t>rel_has_cells</t>
   </si>
   <si>
+    <t>canada-area1-line1</t>
+  </si>
+  <si>
+    <t>france-area2-unit7</t>
+  </si>
+  <si>
+    <t>canada-area1-unit1</t>
+  </si>
+  <si>
     <t>rel_has_units</t>
   </si>
   <si>
+    <t>fr-line2-a3</t>
+  </si>
+  <si>
+    <t>ca-line1-a1</t>
+  </si>
+  <si>
     <t>rel_has_assets</t>
   </si>
   <si>
@@ -83,88 +116,37 @@
     <t>dtmi:assetmodel:asset;1</t>
   </si>
   <si>
-    <t>contoso</t>
-  </si>
-  <si>
-    <t>st1</t>
-  </si>
-  <si>
-    <t>st1-ut</t>
-  </si>
-  <si>
-    <t>st1-ut-cell1</t>
-  </si>
-  <si>
-    <t>st1-ut-cip1</t>
-  </si>
-  <si>
-    <t>st1-ut-cip2</t>
-  </si>
-  <si>
-    <t>st1-ut-cip1-lin1</t>
-  </si>
-  <si>
-    <t>st1-ut-cip1-lin2</t>
-  </si>
-  <si>
-    <t>st1-ut-cip1-lin3</t>
-  </si>
-  <si>
-    <t>st1-ut-cip2-lin1</t>
-  </si>
-  <si>
-    <t>st1-ut-cip2-lin2</t>
-  </si>
-  <si>
-    <t>st1-ut-cip2-lin3</t>
-  </si>
-  <si>
-    <t>st1-ut-cip2-lin4</t>
-  </si>
-  <si>
-    <t>st1-ut-cip2-lin5</t>
-  </si>
-  <si>
-    <t>{"Name": "ST1", "AssetId": "ST1"}</t>
-  </si>
-  <si>
-    <t>{"Name": "UT", "AssetId": "ST1/UT"}</t>
-  </si>
-  <si>
-    <t>{"Name": "Cell1", "AssetId": "ST1/UT/CELL1"}</t>
-  </si>
-  <si>
-    <t>{"Name": "CIP1", "AssetId": "ST1/UT/CIP1"}</t>
-  </si>
-  <si>
-    <t>{"Name": "CIP2", "AssetId": "ST1/UT/CIP2"}</t>
-  </si>
-  <si>
-    <t>{"Name": "ST1/UT/CIP1/LIN1", "AssetId": "ST1/UT/CIP1/LIN1"}</t>
-  </si>
-  <si>
-    <t>{"Name": "ST1/UT/CIP1/LIN2", "AssetId": "ST1/UT/CIP1/LIN2"}</t>
-  </si>
-  <si>
-    <t>{"Name": "ST1/UT/CIP1/LIN3", "AssetId": "ST1/UT/CIP1/LIN3"}</t>
-  </si>
-  <si>
-    <t>{"Name": "ST1/UT/CIP2/LIN1", "AssetId": "ST1/UT/CIP2/LIN1"}</t>
-  </si>
-  <si>
-    <t>{"Name": "ST1/UT/CIP2/LIN2", "AssetId": "ST1/UT/CIP2/LIN2"}</t>
-  </si>
-  <si>
-    <t>{"Name": "ST1/UT/CIP2/LIN3", "AssetId": "ST1/UT/CIP2/LIN3"}</t>
-  </si>
-  <si>
-    <t>{"Name": "ST1/UT/CIP2/LIN4", "AssetId": "ST1/UT/CIP2/LIN4"}</t>
-  </si>
-  <si>
-    <t>{"Name": "ST1/UT/CIP2/LIN5", "AssetId": "ST1/UT/CIP2/LIN5"}</t>
-  </si>
-  <si>
-    <t>{"Name": "contoso", "AssetId": "contoso"}</t>
+    <t>{"Name": "Contoso", "AssetId": "CO"}</t>
+  </si>
+  <si>
+    <t>{"Name": "France", "AssetId": "FR"}</t>
+  </si>
+  <si>
+    <t>{"Name": "Canada", "AssetId": "CA"}</t>
+  </si>
+  <si>
+    <t>{"Name": "Line2", "AssetId": "FR/Line2"}</t>
+  </si>
+  <si>
+    <t>{"Name": "Line1", "AssetId": "CA/Line1"}</t>
+  </si>
+  <si>
+    <t>{"Name": "Unit7", "AssetId": "FR/Unit7"}</t>
+  </si>
+  <si>
+    <t>{"Name": "Unit1", "AssetId": "CA/Unit1"}</t>
+  </si>
+  <si>
+    <t>{"AssetId":"FR/Line2/A3", "Name": "Asset3","AssetDescription": "56-Process LINE 2 ","YearDeployed": "2011","AssetModel": "HAR ","Capacity": "220 KW ","ITEM_COUNT_BAD": 0,"ITEM_COUNT_GOOD": 0,"STATUS": 0}</t>
+  </si>
+  <si>
+    <t>{"AssetId":"CA/Line1/A1", "Name": "Asset1","AssetDescription": "45-Preprocess LINE 2B ","YearDeployed": "2007","AssetModel": "MKR132 ","Capacity": "100 Tones ","ITEM_COUNT_GOOD": 0,"ITEM_COUNT_BAD": 0,"STATUS": 0}</t>
+  </si>
+  <si>
+    <t>{"Name": "Area2", "AssetId": "FR/Area2"}</t>
+  </si>
+  <si>
+    <t>{"Name": "Area1", "AssetId": "CA/Area1"}</t>
   </si>
 </sst>
 </file>
@@ -522,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E4B3A2-EF53-41B2-9F0F-6F5502ACE162}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,234 +538,183 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
